--- a/src/test/resources/exporter_example.xlsx
+++ b/src/test/resources/exporter_example.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="test_doc" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -274,7 +274,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/test/resources/exporter_example.xlsx
+++ b/src/test/resources/exporter_example.xlsx
@@ -70,7 +70,7 @@
     <t xml:space="preserve">subj</t>
   </si>
   <si>
-    <t xml:space="preserve">don’t</t>
+    <t xml:space="preserve">don't</t>
   </si>
   <si>
     <t xml:space="preserve">do</t>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">root</t>
   </si>
   <si>
-    <t xml:space="preserve">n’t</t>
+    <t xml:space="preserve">n't</t>
   </si>
   <si>
     <t xml:space="preserve">not</t>
@@ -133,7 +133,7 @@
     <t xml:space="preserve">S2</t>
   </si>
   <si>
-    <t xml:space="preserve">ain’t</t>
+    <t xml:space="preserve">ain't</t>
   </si>
   <si>
     <t xml:space="preserve">are</t>
@@ -274,7 +274,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/test/resources/exporter_example.xlsx
+++ b/src/test/resources/exporter_example.xlsx
@@ -31,28 +31,28 @@
     <t xml:space="preserve">TOK_B</t>
   </si>
   <si>
-    <t xml:space="preserve">DOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POS_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POS_B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEMMA_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEMMA_B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REL</t>
+    <t xml:space="preserve">TOK::doc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOK::sent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOK_A::pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOK_B::pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOK_A::lemma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOK_B::lemma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOK_A::head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOK_A::rel</t>
   </si>
   <si>
     <t xml:space="preserve">we</t>
@@ -274,7 +274,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/test/resources/exporter_example.xlsx
+++ b/src/test/resources/exporter_example.xlsx
@@ -256,18 +256,18 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -277,10 +277,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
